--- a/Assets/Excel/SkillTag.xlsx
+++ b/Assets/Excel/SkillTag.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="SkillTag" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>//Remark</t>
   </si>
@@ -89,6 +102,9 @@
   </si>
   <si>
     <t>HurtCharacter</t>
+  </si>
+  <si>
+    <t>Damage will also hurt &lt;sprite="Target" name="CUnit"&gt; Character</t>
   </si>
   <si>
     <t>imgIconHurtCharacter</t>
@@ -97,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1025,7 +1041,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1154,10 +1170,10 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillTag.xlsx
+++ b/Assets/Excel/SkillTag.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>//Remark</t>
   </si>
@@ -38,10 +38,16 @@
     <t>tag</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_CN</t>
+  </si>
+  <si>
+    <t>desc_EN</t>
+  </si>
+  <si>
+    <t>desc_CN</t>
   </si>
   <si>
     <t>iconUrl</t>
@@ -62,9 +68,15 @@
     <t>PhysicalDamage</t>
   </si>
   <si>
+    <t>物理伤害</t>
+  </si>
+  <si>
     <t>Damage will reduce because of &lt;sprite="Common" name="DEF"&gt; DEF</t>
   </si>
   <si>
+    <t>伤害会因为 &lt;sprite="Common" name="DEF"&gt; 防御减免。</t>
+  </si>
+  <si>
     <t>imgIconPhysicalDmg</t>
   </si>
   <si>
@@ -74,9 +86,15 @@
     <t>MagicDamage</t>
   </si>
   <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
     <t>Damage will reduce because of &lt;sprite="Common" name="RES"&gt; RES</t>
   </si>
   <si>
+    <t>伤害会因为 &lt;sprite="Common" name="RES"&gt; 魔防减免。</t>
+  </si>
+  <si>
     <t>imgIconMagicDmg</t>
   </si>
   <si>
@@ -86,25 +104,43 @@
     <t>TrueDamage</t>
   </si>
   <si>
+    <t>真实伤害</t>
+  </si>
+  <si>
     <t>Damage will ignore &lt;sprite="Common" name="DEF"&gt; DEF and &lt;sprite="Common" name="RES"&gt; RES</t>
   </si>
   <si>
+    <t>伤害会无视 &lt;sprite="Common" name="DEF"&gt; 防御和 &lt;sprite="Common" name="RES"&gt; 魔防</t>
+  </si>
+  <si>
     <t>imgIconTrueDmg</t>
   </si>
   <si>
     <t>HurtAll</t>
   </si>
   <si>
+    <t>无差别攻击</t>
+  </si>
+  <si>
     <t>Damage will also hurt &lt;sprite="Target" name="CUnit"&gt; Character and &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
+    <t>伤害会对 &lt;sprite="Target" name="CUnit"&gt; 所有角色和 &lt;sprite="Target" name="PUnit"&gt; 植物生效</t>
+  </si>
+  <si>
     <t>imgIconHurtAll</t>
   </si>
   <si>
     <t>HurtCharacter</t>
   </si>
   <si>
+    <t>友伤</t>
+  </si>
+  <si>
     <t>Damage will also hurt &lt;sprite="Target" name="CUnit"&gt; Character</t>
+  </si>
+  <si>
+    <t>伤害会对 &lt;sprite="Target" name="CUnit"&gt; 所有角色生效</t>
   </si>
   <si>
     <t>imgIconHurtCharacter</t>
@@ -1038,18 +1074,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="16.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="90" customWidth="1"/>
-    <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="11.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="106.181818181818" customWidth="1"/>
+    <col min="6" max="6" width="90" customWidth="1"/>
+    <col min="7" max="7" width="20.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1057,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1073,107 +1111,149 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillTag.xlsx
+++ b/Assets/Excel/SkillTag.xlsx
@@ -137,10 +137,10 @@
     <t>友伤</t>
   </si>
   <si>
-    <t>Damage will also hurt &lt;sprite="Target" name="CUnit"&gt; Character</t>
-  </si>
-  <si>
-    <t>伤害会对 &lt;sprite="Target" name="CUnit"&gt; 所有角色生效</t>
+    <t>Will hurt &lt;sprite="Target" name="CUnit"&gt; Character but won't hurt &lt;sprite="Target" name="PUnit"&gt; Plant.</t>
+  </si>
+  <si>
+    <t>伤害会对 &lt;sprite="Target" name="CUnit"&gt; 所有角色生效（&lt;sprite="Target" name="PUnit"&gt; 植物免疫）</t>
   </si>
   <si>
     <t>imgIconHurtCharacter</t>
@@ -1076,8 +1076,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
